--- a/Resources/Book1 - Copy.xlsx
+++ b/Resources/Book1 - Copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tavis\OneDrive\Desktop\skyscanner\skyscanner\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF4F9DE1-8EA1-43B1-9F48-E7C003AF3A68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89793F96-4013-49C6-83DC-F6369E5C3320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6497B39C-BA76-4004-89CD-E3CD4C53AB27}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>From</t>
   </si>
@@ -85,18 +85,15 @@
   </si>
   <si>
     <t>BLG</t>
-  </si>
-  <si>
-    <t>SPN</t>
-  </si>
-  <si>
-    <t>s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -107,7 +104,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -170,23 +166,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -503,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{910EBDBC-A05C-42C2-B189-2443B45873D2}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,40 +550,42 @@
       <c r="K1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3">
-        <v>45251</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="2">
+      <c r="C2" s="4">
+        <v>45323</v>
+      </c>
+      <c r="D2" s="4">
+        <v>45332</v>
+      </c>
+      <c r="E2" s="3">
         <v>1</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="8">
         <v>0.70833333333333337</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="5">
         <v>70</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="6">
         <v>0.70833333333333337</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="6">
         <v>0.73958333333333337</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="5" t="s">
         <v>15</v>
       </c>
       <c r="L2">
@@ -595,138 +593,137 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3">
-        <v>45252</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="2">
+      <c r="B3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="4">
+        <v>45261</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="3">
         <v>1</v>
       </c>
-      <c r="F3" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
+      <c r="F3" s="8">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
       <c r="L3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3">
-        <v>45253</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="2">
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="4">
+        <v>45291</v>
+      </c>
+      <c r="D4" s="4">
+        <v>45298</v>
+      </c>
+      <c r="E4" s="3">
         <v>1</v>
       </c>
-      <c r="F4" s="4">
-        <v>0.79166666666666696</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
+      <c r="F4" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
       <c r="L4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="3">
-        <v>45253</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="2">
+      <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="4">
+        <v>45250</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="3">
         <v>1</v>
       </c>
-      <c r="F5" s="4">
-        <v>0.79166666666666696</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
+      <c r="F5" s="8">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
       <c r="L5">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="3">
-        <v>45253</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="2">
+      <c r="B6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="4">
+        <v>45240</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="3">
         <v>1</v>
       </c>
-      <c r="F6" s="4">
-        <v>0.79166666666666696</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
+      <c r="F6" s="8">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
       <c r="L6">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="3">
-        <v>45253</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="2">
+      <c r="B7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="4">
+        <v>45240</v>
+      </c>
+      <c r="D7" s="4">
+        <v>45282</v>
+      </c>
+      <c r="E7" s="3">
         <v>1</v>
       </c>
-      <c r="F7" s="4">
-        <v>0.79166666666666696</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
+      <c r="F7" s="8">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
       <c r="L7">
         <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L10" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
